--- a/regions/5/ganatleba/ganatleba.xlsx
+++ b/regions/5/ganatleba/ganatleba.xlsx
@@ -1,94 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485"/>
+    <workbookView windowWidth="19185" windowHeight="12090"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="სამცხე-ჯავახეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>განათლება</t>
   </si>
   <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>სახელმწიფო</t>
-  </si>
-  <si>
-    <t>კერძო</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა, ერთეული</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა, კაცი</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>საგანმანათლებლო დაწესებულებების რაოდენობა</t>
-  </si>
-  <si>
-    <t>კურსდამთავრებულთა რიცხოვნობა</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>მასწავლებლების რიცხოვნობა</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">სკოლებისა და მოსწავლეების რაოდენობა სამცხე-ჯავახეთის რეგიონში 
 </t>
     </r>
@@ -97,13 +35,111 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(სასწავლო წლის დასაწყისისთვის)</t>
     </r>
   </si>
   <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა, ერთეული</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა, კაცი</t>
+  </si>
+  <si>
+    <t>24 477</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>წყარო:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  საქართველოს განათლებისა და მეცნიერების სამინისტრო.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">პროფესიული განათლების მაჩვენებლები სამცხე-ჯავახეთის რეგიონში 
 </t>
     </r>
@@ -112,13 +148,32 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(ერთეული)</t>
     </r>
   </si>
   <si>
+    <t>საგანმანათლებლო დაწესებულებების რაოდენობა</t>
+  </si>
+  <si>
+    <t>ჩარიცხული სტუდენტების რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>მასწავლებლების რიცხოვნობა</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">უმაღლესი საგანმანათლებლო დაწესებულებების რაოდენობა სამცხე-ჯავახეთის რეგიონში 
 </t>
     </r>
@@ -127,105 +182,234 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(სასწავლო წლის დასაწყისისთვის, ერთეული)</t>
     </r>
   </si>
   <si>
-    <t>2019/2020</t>
-  </si>
-  <si>
-    <t>ჩარიცხული სტუდენტების რიცხოვნობა</t>
-  </si>
-  <si>
-    <t>2020/2021</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>წყარო:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  საქართველოს განათლებისა და მეცნიერების სამინისტრო.</t>
-    </r>
+    <t>სახელმწიფო</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>კერძო</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -233,24 +417,204 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -263,7 +627,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -271,85 +635,374 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,7 +1051,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +1086,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,131 +1289,141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="A1" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
-    <col min="2" max="18" width="12.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="45.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="20" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+    <row r="3" ht="30" customHeight="1" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="22"/>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:20">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="20" t="s">
+      <c r="O4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>30</v>
+      <c r="T4" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15" customHeight="1" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
         <v>221</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>210</v>
       </c>
       <c r="D5" s="1">
@@ -808,138 +1471,157 @@
       <c r="R5" s="1">
         <v>206</v>
       </c>
+      <c r="S5" s="1">
+        <v>206</v>
+      </c>
+      <c r="T5" s="1">
+        <v>205</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15" customHeight="1" spans="1:20">
       <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="16">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
         <v>31591</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="9">
         <v>31359</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="10">
         <v>29924</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="10">
         <v>29805</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="10">
         <v>29712</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="10">
         <v>28123</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="10">
         <v>26645</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="10">
         <v>25965</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="10">
         <v>25675</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="10">
         <v>25264</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="10">
         <v>24810</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="10">
         <v>24745</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="10">
         <v>24618</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="10">
         <v>24532</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="10">
         <v>24424</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="10">
         <v>24695</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="10">
         <v>24732</v>
       </c>
+      <c r="S6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="23">
+        <v>24179</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>15</v>
+    <row r="7" ht="15" customHeight="1" spans="1:1">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>31</v>
+    <row r="8" ht="15" customHeight="1" spans="1:1">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+    <row r="9" ht="15" customHeight="1"/>
+    <row r="10" ht="30" customHeight="1" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18">
+    <row r="11" ht="15" customHeight="1" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="B11" s="12">
         <v>2013</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>2014</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>2015</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>2016</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="12">
         <v>2017</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="12">
         <v>2018</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="12">
         <v>2019</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="12">
         <v>2020</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="12">
         <v>2021</v>
       </c>
+      <c r="K11" s="12">
+        <v>2022</v>
+      </c>
+      <c r="L11" s="12">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" ht="15" customHeight="1" spans="1:12">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="14">
         <v>7</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="14">
         <v>6</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="14">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="15">
         <v>5</v>
       </c>
       <c r="H12" s="1">
@@ -951,27 +1633,33 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="15" customHeight="1" spans="1:12">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="14">
         <v>742</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>646</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="14">
         <v>790</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="14">
         <v>470</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="14">
         <v>587</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="15">
         <v>364</v>
       </c>
       <c r="H13" s="1">
@@ -983,27 +1671,33 @@
       <c r="J13" s="1">
         <v>428</v>
       </c>
+      <c r="K13" s="1">
+        <v>452</v>
+      </c>
+      <c r="L13" s="1">
+        <v>442</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="14" ht="15" customHeight="1" spans="1:12">
+      <c r="A14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="14">
         <v>133</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="14">
         <v>449</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="15">
         <v>517</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="15">
         <v>527</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="15">
         <v>415</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="15">
         <v>164</v>
       </c>
       <c r="H14" s="1">
@@ -1015,27 +1709,33 @@
       <c r="J14" s="1">
         <v>330</v>
       </c>
+      <c r="K14" s="1">
+        <v>260</v>
+      </c>
+      <c r="L14" s="1">
+        <v>322</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="11">
+    <row r="15" ht="15" customHeight="1" spans="1:12">
+      <c r="A15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="17">
         <v>74</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="17">
         <v>135</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="18">
         <v>203</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="18">
         <v>200</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="18">
         <v>178</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="18">
         <v>159</v>
       </c>
       <c r="H15" s="8">
@@ -1047,93 +1747,105 @@
       <c r="J15" s="8">
         <v>107</v>
       </c>
+      <c r="K15" s="8">
+        <v>183</v>
+      </c>
+      <c r="L15" s="8">
+        <v>173</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+    <row r="16" ht="15" customHeight="1" spans="1:1">
+      <c r="A16" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1" spans="1:16">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+    <row r="19" ht="15" customHeight="1" spans="1:19">
+      <c r="A19" s="4"/>
+      <c r="B19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15" customHeight="1" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1153,16 +1865,16 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>1</v>
       </c>
       <c r="N20" s="1">
@@ -1177,10 +1889,16 @@
       <c r="Q20" s="1">
         <v>1</v>
       </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15" customHeight="1" spans="1:19">
       <c r="A21" s="8" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
@@ -1197,25 +1915,25 @@
       <c r="F21" s="8">
         <v>2</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="13">
-        <v>1</v>
-      </c>
-      <c r="M21" s="13">
+      <c r="G21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="21">
         <v>1</v>
       </c>
       <c r="N21" s="8">
@@ -1228,18 +1946,24 @@
         <v>1</v>
       </c>
       <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1</v>
+      </c>
+      <c r="S21" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A10:J10"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>